--- a/Current Freight Rate.XLSX
+++ b/Current Freight Rate.XLSX
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARUN\Desktop\FREIGHT RATE COMPARSION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G01889\Documents\admin dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21852" windowHeight="14940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19400" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="671">
   <si>
     <t>1110</t>
   </si>
@@ -2029,6 +2029,9 @@
   </si>
   <si>
     <t>Direct Road Freight</t>
+  </si>
+  <si>
+    <t>Market Freight</t>
   </si>
 </sst>
 </file>
@@ -2375,22 +2378,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>665</v>
       </c>
@@ -2406,8 +2410,11 @@
       <c r="E1" s="3" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2423,8 +2430,12 @@
       <c r="E2" s="2">
         <v>5025</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <f>E2+1</f>
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2440,8 +2451,12 @@
       <c r="E3" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="0">E3+1</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2457,8 +2472,12 @@
       <c r="E4" s="2">
         <v>3050</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2474,8 +2493,12 @@
       <c r="E5" s="2">
         <v>3050</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2491,8 +2514,12 @@
       <c r="E6" s="2">
         <v>2625</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2508,8 +2535,12 @@
       <c r="E7" s="2">
         <v>2300</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2525,8 +2556,12 @@
       <c r="E8" s="2">
         <v>4250</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2542,8 +2577,12 @@
       <c r="E9" s="2">
         <v>2775</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2559,8 +2598,12 @@
       <c r="E10" s="2">
         <v>2925</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2576,8 +2619,12 @@
       <c r="E11" s="2">
         <v>4200</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2593,8 +2640,12 @@
       <c r="E12" s="2">
         <v>2950</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2610,8 +2661,12 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2627,8 +2682,12 @@
       <c r="E14" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2644,8 +2703,12 @@
       <c r="E15" s="2">
         <v>2550</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2661,8 +2724,12 @@
       <c r="E16" s="2">
         <v>3925</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2678,8 +2745,12 @@
       <c r="E17" s="2">
         <v>2725</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2695,8 +2766,12 @@
       <c r="E18" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2712,8 +2787,12 @@
       <c r="E19" s="2">
         <v>3450</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2729,8 +2808,12 @@
       <c r="E20" s="2">
         <v>1100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2746,8 +2829,12 @@
       <c r="E21" s="2">
         <v>2600</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2763,8 +2850,12 @@
       <c r="E22" s="2">
         <v>4500</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2780,8 +2871,12 @@
       <c r="E23" s="2">
         <v>2575</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2797,8 +2892,12 @@
       <c r="E24" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2814,8 +2913,12 @@
       <c r="E25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2831,8 +2934,12 @@
       <c r="E26" s="2">
         <v>3575</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2848,8 +2955,12 @@
       <c r="E27" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2865,8 +2976,12 @@
       <c r="E28" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2882,8 +2997,12 @@
       <c r="E29" s="2">
         <v>2575</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2899,8 +3018,12 @@
       <c r="E30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2916,8 +3039,12 @@
       <c r="E31" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2933,8 +3060,12 @@
       <c r="E32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2950,8 +3081,12 @@
       <c r="E33" s="2">
         <v>3625</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2967,8 +3102,12 @@
       <c r="E34" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2984,8 +3123,12 @@
       <c r="E35" s="2">
         <v>4275</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3001,8 +3144,12 @@
       <c r="E36" s="2">
         <v>3175</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3018,8 +3165,12 @@
       <c r="E37" s="2">
         <v>4800</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3035,8 +3186,12 @@
       <c r="E38" s="2">
         <v>3175</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3052,8 +3207,12 @@
       <c r="E39" s="2">
         <v>3575</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3069,8 +3228,12 @@
       <c r="E40" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3086,8 +3249,12 @@
       <c r="E41" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3103,8 +3270,12 @@
       <c r="E42" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3120,8 +3291,12 @@
       <c r="E43" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3137,8 +3312,12 @@
       <c r="E44" s="2">
         <v>2300</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3154,8 +3333,12 @@
       <c r="E45" s="2">
         <v>2800</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3171,8 +3354,12 @@
       <c r="E46" s="2">
         <v>3700</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3188,8 +3375,12 @@
       <c r="E47" s="2">
         <v>4250</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3205,8 +3396,12 @@
       <c r="E48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3222,8 +3417,12 @@
       <c r="E49" s="2">
         <v>1345</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3239,8 +3438,12 @@
       <c r="E50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3256,8 +3459,12 @@
       <c r="E51" s="2">
         <v>680</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3273,8 +3480,12 @@
       <c r="E52" s="2">
         <v>3550</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3290,8 +3501,12 @@
       <c r="E53" s="2">
         <v>2100</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3307,8 +3522,12 @@
       <c r="E54" s="2">
         <v>3050</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3324,8 +3543,12 @@
       <c r="E55" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3341,8 +3564,12 @@
       <c r="E56" s="2">
         <v>2375</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3358,8 +3585,12 @@
       <c r="E57" s="2">
         <v>3250</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3375,8 +3606,12 @@
       <c r="E58" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3392,8 +3627,12 @@
       <c r="E59" s="2">
         <v>2275</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3409,8 +3648,12 @@
       <c r="E60" s="2">
         <v>1045</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3426,8 +3669,12 @@
       <c r="E61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3443,8 +3690,12 @@
       <c r="E62" s="2">
         <v>3100</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3460,8 +3711,12 @@
       <c r="E63" s="2">
         <v>2550</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3477,8 +3732,12 @@
       <c r="E64" s="2">
         <v>2850</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3494,8 +3753,12 @@
       <c r="E65" s="2">
         <v>3225</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3511,8 +3774,12 @@
       <c r="E66" s="2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3528,8 +3795,12 @@
       <c r="E67" s="2">
         <v>3450</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F130" si="1">E67+1</f>
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3545,8 +3816,12 @@
       <c r="E68" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
+        <f t="shared" si="1"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3562,8 +3837,12 @@
       <c r="E69" s="2">
         <v>4400</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3579,8 +3858,12 @@
       <c r="E70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3596,8 +3879,12 @@
       <c r="E71" s="2">
         <v>925</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
+        <f t="shared" si="1"/>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3613,8 +3900,12 @@
       <c r="E72" s="2">
         <v>3325</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="2">
+        <f t="shared" si="1"/>
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3630,8 +3921,12 @@
       <c r="E73" s="2">
         <v>3150</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="2">
+        <f t="shared" si="1"/>
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3647,8 +3942,12 @@
       <c r="E74" s="2">
         <v>1925</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="2">
+        <f t="shared" si="1"/>
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3664,8 +3963,12 @@
       <c r="E75" s="2">
         <v>2550</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="2">
+        <f t="shared" si="1"/>
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3681,8 +3984,12 @@
       <c r="E76" s="2">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="2">
+        <f t="shared" si="1"/>
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3698,8 +4005,12 @@
       <c r="E77" s="2">
         <v>4550</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="2">
+        <f t="shared" si="1"/>
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3715,8 +4026,12 @@
       <c r="E78" s="2">
         <v>4750</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="2">
+        <f t="shared" si="1"/>
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3732,8 +4047,12 @@
       <c r="E79" s="2">
         <v>3225</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="2">
+        <f t="shared" si="1"/>
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3749,8 +4068,12 @@
       <c r="E80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3766,8 +4089,12 @@
       <c r="E81" s="2">
         <v>1380</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="2">
+        <f t="shared" si="1"/>
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3783,8 +4110,12 @@
       <c r="E82" s="2">
         <v>1480</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
+        <f t="shared" si="1"/>
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3800,8 +4131,12 @@
       <c r="E83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3817,8 +4152,12 @@
       <c r="E84" s="2">
         <v>2675</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="2">
+        <f t="shared" si="1"/>
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3834,8 +4173,12 @@
       <c r="E85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3851,8 +4194,12 @@
       <c r="E86" s="2">
         <v>3225</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="2">
+        <f t="shared" si="1"/>
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3868,8 +4215,12 @@
       <c r="E87" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="2">
+        <f t="shared" si="1"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3885,8 +4236,12 @@
       <c r="E88" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="2">
+        <f t="shared" si="1"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3902,8 +4257,12 @@
       <c r="E89" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
+        <f t="shared" si="1"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3919,8 +4278,12 @@
       <c r="E90" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="2">
+        <f t="shared" si="1"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3936,8 +4299,12 @@
       <c r="E91" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="2">
+        <f t="shared" si="1"/>
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3953,8 +4320,12 @@
       <c r="E92" s="2">
         <v>1750</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
+        <f t="shared" si="1"/>
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3970,8 +4341,12 @@
       <c r="E93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3987,8 +4362,12 @@
       <c r="E94" s="2">
         <v>2375</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="2">
+        <f t="shared" si="1"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -4004,8 +4383,12 @@
       <c r="E95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -4021,8 +4404,12 @@
       <c r="E96" s="2">
         <v>2075</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="2">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -4038,8 +4425,12 @@
       <c r="E97" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="2">
+        <f t="shared" si="1"/>
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -4055,8 +4446,12 @@
       <c r="E98" s="2">
         <v>2625</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="2">
+        <f t="shared" si="1"/>
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -4072,8 +4467,12 @@
       <c r="E99" s="2">
         <v>1825</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="2">
+        <f t="shared" si="1"/>
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -4089,8 +4488,12 @@
       <c r="E100" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="2">
+        <f t="shared" si="1"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -4106,8 +4509,12 @@
       <c r="E101" s="2">
         <v>3550</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="2">
+        <f t="shared" si="1"/>
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -4123,8 +4530,12 @@
       <c r="E102" s="2">
         <v>3900</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="2">
+        <f t="shared" si="1"/>
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -4140,8 +4551,12 @@
       <c r="E103" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="2">
+        <f t="shared" si="1"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -4157,8 +4572,12 @@
       <c r="E104" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="2">
+        <f t="shared" si="1"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -4174,8 +4593,12 @@
       <c r="E105" s="2">
         <v>3050</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="2">
+        <f t="shared" si="1"/>
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -4191,8 +4614,12 @@
       <c r="E106" s="2">
         <v>3200</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="2">
+        <f t="shared" si="1"/>
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -4208,8 +4635,12 @@
       <c r="E107" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="2">
+        <f t="shared" si="1"/>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -4225,8 +4656,12 @@
       <c r="E108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -4242,8 +4677,12 @@
       <c r="E109" s="2">
         <v>3300</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="2">
+        <f t="shared" si="1"/>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -4259,8 +4698,12 @@
       <c r="E110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -4276,8 +4719,12 @@
       <c r="E111" s="2">
         <v>3700</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="2">
+        <f t="shared" si="1"/>
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -4293,8 +4740,12 @@
       <c r="E112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -4310,8 +4761,12 @@
       <c r="E113" s="2">
         <v>3200</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="2">
+        <f t="shared" si="1"/>
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4327,8 +4782,12 @@
       <c r="E114" s="2">
         <v>4250</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="2">
+        <f t="shared" si="1"/>
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4344,8 +4803,12 @@
       <c r="E115" s="2">
         <v>4550</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="2">
+        <f t="shared" si="1"/>
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4361,8 +4824,12 @@
       <c r="E116" s="2">
         <v>3075</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="2">
+        <f t="shared" si="1"/>
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -4378,8 +4845,12 @@
       <c r="E117" s="2">
         <v>3300</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="2">
+        <f t="shared" si="1"/>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -4395,8 +4866,12 @@
       <c r="E118" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="2">
+        <f t="shared" si="1"/>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4412,8 +4887,12 @@
       <c r="E119" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="2">
+        <f t="shared" si="1"/>
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4429,8 +4908,12 @@
       <c r="E120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4446,8 +4929,12 @@
       <c r="E121" s="2">
         <v>3700</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="2">
+        <f t="shared" si="1"/>
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4463,8 +4950,12 @@
       <c r="E122" s="2">
         <v>1315</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="2">
+        <f t="shared" si="1"/>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4480,8 +4971,12 @@
       <c r="E123" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="2">
+        <f t="shared" si="1"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4497,8 +4992,12 @@
       <c r="E124" s="2">
         <v>3250</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="2">
+        <f t="shared" si="1"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4514,8 +5013,12 @@
       <c r="E125" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="2">
+        <f t="shared" si="1"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4531,8 +5034,12 @@
       <c r="E126" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="2">
+        <f t="shared" si="1"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4548,8 +5055,12 @@
       <c r="E127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4565,8 +5076,12 @@
       <c r="E128" s="2">
         <v>2925</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="2">
+        <f t="shared" si="1"/>
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4582,8 +5097,12 @@
       <c r="E129" s="2">
         <v>4250</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="2">
+        <f t="shared" si="1"/>
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4599,8 +5118,12 @@
       <c r="E130" s="2">
         <v>3250</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="2">
+        <f t="shared" si="1"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4616,8 +5139,12 @@
       <c r="E131" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="2">
+        <f t="shared" ref="F131:F194" si="2">E131+1</f>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -4633,8 +5160,12 @@
       <c r="E132" s="2">
         <v>4800</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="2">
+        <f t="shared" si="2"/>
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4650,8 +5181,12 @@
       <c r="E133" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="2">
+        <f t="shared" si="2"/>
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -4667,8 +5202,12 @@
       <c r="E134" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="2">
+        <f t="shared" si="2"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4684,8 +5223,12 @@
       <c r="E135" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="2">
+        <f t="shared" si="2"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -4701,8 +5244,12 @@
       <c r="E136" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="2">
+        <f t="shared" si="2"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -4718,8 +5265,12 @@
       <c r="E137" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="2">
+        <f t="shared" si="2"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -4735,8 +5286,12 @@
       <c r="E138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -4752,8 +5307,12 @@
       <c r="E139" s="2">
         <v>2375</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="2">
+        <f t="shared" si="2"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -4769,8 +5328,12 @@
       <c r="E140" s="2">
         <v>3300</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="2">
+        <f t="shared" si="2"/>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -4786,8 +5349,12 @@
       <c r="E141" s="2">
         <v>3400</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="2">
+        <f t="shared" si="2"/>
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -4803,8 +5370,12 @@
       <c r="E142" s="2">
         <v>2500</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="2">
+        <f t="shared" si="2"/>
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -4820,8 +5391,12 @@
       <c r="E143" s="2">
         <v>2500</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="2">
+        <f t="shared" si="2"/>
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -4837,8 +5412,12 @@
       <c r="E144" s="2">
         <v>2125</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="2">
+        <f t="shared" si="2"/>
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4854,8 +5433,12 @@
       <c r="E145" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="2">
+        <f t="shared" si="2"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -4871,8 +5454,12 @@
       <c r="E146" s="2">
         <v>2400</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="2">
+        <f t="shared" si="2"/>
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -4888,8 +5475,12 @@
       <c r="E147" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="2">
+        <f t="shared" si="2"/>
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -4905,8 +5496,12 @@
       <c r="E148" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="2">
+        <f t="shared" si="2"/>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4922,8 +5517,12 @@
       <c r="E149" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="2">
+        <f t="shared" si="2"/>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -4939,8 +5538,12 @@
       <c r="E150" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="2">
+        <f t="shared" si="2"/>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -4956,8 +5559,12 @@
       <c r="E151" s="2">
         <v>3475</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="2">
+        <f t="shared" si="2"/>
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -4973,8 +5580,12 @@
       <c r="E152" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="2">
+        <f t="shared" si="2"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -4990,8 +5601,12 @@
       <c r="E153" s="2">
         <v>1345</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="2">
+        <f t="shared" si="2"/>
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -5007,8 +5622,12 @@
       <c r="E154" s="2">
         <v>3050</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="2">
+        <f t="shared" si="2"/>
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -5024,8 +5643,12 @@
       <c r="E155" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -5041,8 +5664,12 @@
       <c r="E156" s="2">
         <v>2850</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="2">
+        <f t="shared" si="2"/>
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -5058,8 +5685,12 @@
       <c r="E157" s="2">
         <v>3250</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="2">
+        <f t="shared" si="2"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -5075,8 +5706,12 @@
       <c r="E158" s="2">
         <v>2125</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="2">
+        <f t="shared" si="2"/>
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -5092,8 +5727,12 @@
       <c r="E159" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -5109,8 +5748,12 @@
       <c r="E160" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="2">
+        <f t="shared" si="2"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -5126,8 +5769,12 @@
       <c r="E161" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="2">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -5143,8 +5790,12 @@
       <c r="E162" s="2">
         <v>4575</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="2">
+        <f t="shared" si="2"/>
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -5160,8 +5811,12 @@
       <c r="E163" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="2">
+        <f t="shared" si="2"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -5177,8 +5832,12 @@
       <c r="E164" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -5194,8 +5853,12 @@
       <c r="E165" s="2">
         <v>2675</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="2">
+        <f t="shared" si="2"/>
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -5211,8 +5874,12 @@
       <c r="E166" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="2">
+        <f t="shared" si="2"/>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -5228,8 +5895,12 @@
       <c r="E167" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -5245,8 +5916,12 @@
       <c r="E168" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="2">
+        <f t="shared" si="2"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -5262,8 +5937,12 @@
       <c r="E169" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="2">
+        <f t="shared" si="2"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -5279,8 +5958,12 @@
       <c r="E170" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="2">
+        <f t="shared" si="2"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -5296,8 +5979,12 @@
       <c r="E171" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -5313,8 +6000,12 @@
       <c r="E172" s="2">
         <v>3400</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="2">
+        <f t="shared" si="2"/>
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -5330,8 +6021,12 @@
       <c r="E173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -5347,8 +6042,12 @@
       <c r="E174" s="2">
         <v>3400</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="2">
+        <f t="shared" si="2"/>
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -5364,8 +6063,12 @@
       <c r="E175" s="2">
         <v>3725</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="2">
+        <f t="shared" si="2"/>
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -5381,8 +6084,12 @@
       <c r="E176" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="2">
+        <f t="shared" si="2"/>
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -5398,8 +6105,12 @@
       <c r="E177" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="2">
+        <f t="shared" si="2"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -5415,8 +6126,12 @@
       <c r="E178" s="2">
         <v>2650</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="2">
+        <f t="shared" si="2"/>
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -5432,8 +6147,12 @@
       <c r="E179" s="2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="2">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -5449,8 +6168,12 @@
       <c r="E180" s="2">
         <v>2425</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="2">
+        <f t="shared" si="2"/>
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -5466,8 +6189,12 @@
       <c r="E181" s="2">
         <v>3150</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="2">
+        <f t="shared" si="2"/>
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -5483,8 +6210,12 @@
       <c r="E182" s="2">
         <v>2250</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="2">
+        <f t="shared" si="2"/>
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -5500,8 +6231,12 @@
       <c r="E183" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="2">
+        <f t="shared" si="2"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -5517,8 +6252,12 @@
       <c r="E184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -5534,8 +6273,12 @@
       <c r="E185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -5551,8 +6294,12 @@
       <c r="E186" s="2">
         <v>3925</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="2">
+        <f t="shared" si="2"/>
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -5568,8 +6315,12 @@
       <c r="E187" s="2">
         <v>2225</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="2">
+        <f t="shared" si="2"/>
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -5585,8 +6336,12 @@
       <c r="E188" s="2">
         <v>2775</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="2">
+        <f t="shared" si="2"/>
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -5602,8 +6357,12 @@
       <c r="E189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -5619,8 +6378,12 @@
       <c r="E190" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -5636,8 +6399,12 @@
       <c r="E191" s="2">
         <v>4575</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="2">
+        <f t="shared" si="2"/>
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -5653,8 +6420,12 @@
       <c r="E192" s="2">
         <v>3350</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="2">
+        <f t="shared" si="2"/>
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -5670,8 +6441,12 @@
       <c r="E193" s="2">
         <v>4375</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="2">
+        <f t="shared" si="2"/>
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -5687,8 +6462,12 @@
       <c r="E194" s="2">
         <v>3350</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="2">
+        <f t="shared" si="2"/>
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -5704,8 +6483,12 @@
       <c r="E195" s="2">
         <v>640</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="2">
+        <f t="shared" ref="F195:F258" si="3">E195+1</f>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -5721,8 +6504,12 @@
       <c r="E196" s="2">
         <v>3325</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="2">
+        <f t="shared" si="3"/>
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -5738,8 +6525,12 @@
       <c r="E197" s="2">
         <v>3750</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="2">
+        <f t="shared" si="3"/>
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -5755,8 +6546,12 @@
       <c r="E198" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -5772,8 +6567,12 @@
       <c r="E199" s="2">
         <v>2875</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="2">
+        <f t="shared" si="3"/>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -5789,8 +6588,12 @@
       <c r="E200" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -5806,8 +6609,12 @@
       <c r="E201" s="2">
         <v>3050</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="2">
+        <f t="shared" si="3"/>
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -5823,8 +6630,12 @@
       <c r="E202" s="2">
         <v>3300</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="2">
+        <f t="shared" si="3"/>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5840,8 +6651,12 @@
       <c r="E203" s="2">
         <v>3300</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="2">
+        <f t="shared" si="3"/>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -5857,8 +6672,12 @@
       <c r="E204" s="2">
         <v>4800</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="2">
+        <f t="shared" si="3"/>
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -5874,8 +6693,12 @@
       <c r="E205" s="2">
         <v>2275</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="2">
+        <f t="shared" si="3"/>
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -5891,8 +6714,12 @@
       <c r="E206" s="2">
         <v>4400</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="2">
+        <f t="shared" si="3"/>
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -5908,8 +6735,12 @@
       <c r="E207" s="2">
         <v>2900</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="2">
+        <f t="shared" si="3"/>
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -5925,8 +6756,12 @@
       <c r="E208" s="2">
         <v>3200</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="2">
+        <f t="shared" si="3"/>
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -5942,8 +6777,12 @@
       <c r="E209" s="2">
         <v>2150</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="2">
+        <f t="shared" si="3"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -5959,8 +6798,12 @@
       <c r="E210" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="2">
+        <f t="shared" si="3"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -5976,8 +6819,12 @@
       <c r="E211" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -5993,8 +6840,12 @@
       <c r="E212" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="2">
+        <f t="shared" si="3"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -6010,8 +6861,12 @@
       <c r="E213" s="2">
         <v>3225</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="2">
+        <f t="shared" si="3"/>
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -6027,8 +6882,12 @@
       <c r="E214" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -6044,8 +6903,12 @@
       <c r="E215" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -6061,8 +6924,12 @@
       <c r="E216" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -6078,8 +6945,12 @@
       <c r="E217" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="2">
+        <f t="shared" si="3"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -6095,8 +6966,12 @@
       <c r="E218" s="2">
         <v>3450</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="2">
+        <f t="shared" si="3"/>
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -6112,8 +6987,12 @@
       <c r="E219" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="2">
+        <f t="shared" si="3"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -6129,8 +7008,12 @@
       <c r="E220" s="2">
         <v>2875</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="2">
+        <f t="shared" si="3"/>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -6146,8 +7029,12 @@
       <c r="E221" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="2">
+        <f t="shared" si="3"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -6163,8 +7050,12 @@
       <c r="E222" s="2">
         <v>1025</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="2">
+        <f t="shared" si="3"/>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -6180,8 +7071,12 @@
       <c r="E223" s="2">
         <v>1050</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="2">
+        <f t="shared" si="3"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -6197,8 +7092,12 @@
       <c r="E224" s="2">
         <v>2550</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="2">
+        <f t="shared" si="3"/>
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -6214,8 +7113,12 @@
       <c r="E225" s="2">
         <v>3450</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="2">
+        <f t="shared" si="3"/>
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -6231,8 +7134,12 @@
       <c r="E226" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="2">
+        <f t="shared" si="3"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -6248,8 +7155,12 @@
       <c r="E227" s="2">
         <v>2150</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="2">
+        <f t="shared" si="3"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -6265,8 +7176,12 @@
       <c r="E228" s="2">
         <v>2525</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="2">
+        <f t="shared" si="3"/>
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -6282,8 +7197,12 @@
       <c r="E229" s="2">
         <v>3150</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="2">
+        <f t="shared" si="3"/>
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -6299,8 +7218,12 @@
       <c r="E230" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -6316,8 +7239,12 @@
       <c r="E231" s="2">
         <v>2350</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="2">
+        <f t="shared" si="3"/>
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -6333,8 +7260,12 @@
       <c r="E232" s="2">
         <v>2550</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="2">
+        <f t="shared" si="3"/>
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -6350,8 +7281,12 @@
       <c r="E233" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -6367,8 +7302,12 @@
       <c r="E234" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -6384,8 +7323,12 @@
       <c r="E235" s="2">
         <v>2850</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="2">
+        <f t="shared" si="3"/>
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -6401,8 +7344,12 @@
       <c r="E236" s="2">
         <v>2850</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="2">
+        <f t="shared" si="3"/>
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -6418,8 +7365,12 @@
       <c r="E237" s="2">
         <v>4575</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="2">
+        <f t="shared" si="3"/>
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -6435,8 +7386,12 @@
       <c r="E238" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -6452,8 +7407,12 @@
       <c r="E239" s="2">
         <v>3150</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="2">
+        <f t="shared" si="3"/>
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -6469,8 +7428,12 @@
       <c r="E240" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="2">
+        <f t="shared" si="3"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -6486,8 +7449,12 @@
       <c r="E241" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="2">
+        <f t="shared" si="3"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -6503,8 +7470,12 @@
       <c r="E242" s="2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="2">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -6520,8 +7491,12 @@
       <c r="E243" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="2">
+        <f t="shared" si="3"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -6537,8 +7512,12 @@
       <c r="E244" s="2">
         <v>3325</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="2">
+        <f t="shared" si="3"/>
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -6554,8 +7533,12 @@
       <c r="E245" s="2">
         <v>3700</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="2">
+        <f t="shared" si="3"/>
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -6571,8 +7554,12 @@
       <c r="E246" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -6588,8 +7575,12 @@
       <c r="E247" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="2">
+        <f t="shared" si="3"/>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -6605,8 +7596,12 @@
       <c r="E248" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="2">
+        <f t="shared" si="3"/>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -6622,8 +7617,12 @@
       <c r="E249" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -6639,8 +7638,12 @@
       <c r="E250" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="2">
+        <f t="shared" si="3"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -6656,8 +7659,12 @@
       <c r="E251" s="2">
         <v>465</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="2">
+        <f t="shared" si="3"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -6673,8 +7680,12 @@
       <c r="E252" s="2">
         <v>465</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="2">
+        <f t="shared" si="3"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -6690,8 +7701,12 @@
       <c r="E253" s="2">
         <v>2375</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="2">
+        <f t="shared" si="3"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -6707,8 +7722,12 @@
       <c r="E254" s="2">
         <v>2375</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="2">
+        <f t="shared" si="3"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -6724,8 +7743,12 @@
       <c r="E255" s="2">
         <v>370</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="2">
+        <f t="shared" si="3"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -6741,8 +7764,12 @@
       <c r="E256" s="2">
         <v>3125</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="2">
+        <f t="shared" si="3"/>
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -6758,8 +7785,12 @@
       <c r="E257" s="2">
         <v>2650</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="2">
+        <f t="shared" si="3"/>
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -6775,8 +7806,12 @@
       <c r="E258" s="2">
         <v>3975</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="2">
+        <f t="shared" si="3"/>
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -6792,8 +7827,12 @@
       <c r="E259" s="2">
         <v>3550</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="2">
+        <f t="shared" ref="F259:F322" si="4">E259+1</f>
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -6809,8 +7848,12 @@
       <c r="E260" s="2">
         <v>4575</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="2">
+        <f t="shared" si="4"/>
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -6826,8 +7869,12 @@
       <c r="E261" s="2">
         <v>3550</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="2">
+        <f t="shared" si="4"/>
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -6843,8 +7890,12 @@
       <c r="E262" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="2">
+        <f t="shared" si="4"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -6860,8 +7911,12 @@
       <c r="E263" s="2">
         <v>2150</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="2">
+        <f t="shared" si="4"/>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -6877,8 +7932,12 @@
       <c r="E264" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -6894,8 +7953,12 @@
       <c r="E265" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="2">
+        <f t="shared" si="4"/>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -6911,8 +7974,12 @@
       <c r="E266" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -6928,8 +7995,12 @@
       <c r="E267" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="2">
+        <f t="shared" si="4"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -6945,8 +8016,12 @@
       <c r="E268" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -6962,8 +8037,12 @@
       <c r="E269" s="2">
         <v>4550</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="2">
+        <f t="shared" si="4"/>
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -6979,8 +8058,12 @@
       <c r="E270" s="2">
         <v>3250</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="2">
+        <f t="shared" si="4"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -6996,8 +8079,12 @@
       <c r="E271" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="2">
+        <f t="shared" si="4"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -7013,8 +8100,12 @@
       <c r="E272" s="2">
         <v>2775</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="2">
+        <f t="shared" si="4"/>
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -7030,8 +8121,12 @@
       <c r="E273" s="2">
         <v>3250</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="2">
+        <f t="shared" si="4"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -7047,8 +8142,12 @@
       <c r="E274" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -7064,8 +8163,12 @@
       <c r="E275" s="2">
         <v>3600</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="2">
+        <f t="shared" si="4"/>
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -7081,8 +8184,12 @@
       <c r="E276" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="2">
+        <f t="shared" si="4"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -7098,8 +8205,12 @@
       <c r="E277" s="2">
         <v>4350</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="2">
+        <f t="shared" si="4"/>
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -7115,8 +8226,12 @@
       <c r="E278" s="2">
         <v>3700</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="2">
+        <f t="shared" si="4"/>
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -7132,8 +8247,12 @@
       <c r="E279" s="2">
         <v>2975</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="2">
+        <f t="shared" si="4"/>
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -7149,8 +8268,12 @@
       <c r="E280" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="2">
+        <f t="shared" si="4"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -7166,8 +8289,12 @@
       <c r="E281" s="2">
         <v>3300</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="2">
+        <f t="shared" si="4"/>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -7183,8 +8310,12 @@
       <c r="E282" s="2">
         <v>4250</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="2">
+        <f t="shared" si="4"/>
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -7200,8 +8331,12 @@
       <c r="E283" s="2">
         <v>3125</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="2">
+        <f t="shared" si="4"/>
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -7217,8 +8352,12 @@
       <c r="E284" s="2">
         <v>3175</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="2">
+        <f t="shared" si="4"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -7234,8 +8373,12 @@
       <c r="E285" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="2">
+        <f t="shared" si="4"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -7251,8 +8394,12 @@
       <c r="E286" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -7268,8 +8415,12 @@
       <c r="E287" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -7285,8 +8436,12 @@
       <c r="E288" s="2">
         <v>3175</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="2">
+        <f t="shared" si="4"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -7302,8 +8457,12 @@
       <c r="E289" s="2">
         <v>3850</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="2">
+        <f t="shared" si="4"/>
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -7319,8 +8478,12 @@
       <c r="E290" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="2">
+        <f t="shared" si="4"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -7336,8 +8499,12 @@
       <c r="E291" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -7353,8 +8520,12 @@
       <c r="E292" s="2">
         <v>2925</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="2">
+        <f t="shared" si="4"/>
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -7370,8 +8541,12 @@
       <c r="E293" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -7387,8 +8562,12 @@
       <c r="E294" s="2">
         <v>3175</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="2">
+        <f t="shared" si="4"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -7404,8 +8583,12 @@
       <c r="E295" s="2">
         <v>3325</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="2">
+        <f t="shared" si="4"/>
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -7421,8 +8604,12 @@
       <c r="E296" s="2">
         <v>2700</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="2">
+        <f t="shared" si="4"/>
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -7438,8 +8625,12 @@
       <c r="E297" s="2">
         <v>1530</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="2">
+        <f t="shared" si="4"/>
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -7455,8 +8646,12 @@
       <c r="E298" s="2">
         <v>2350</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="2">
+        <f t="shared" si="4"/>
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -7472,8 +8667,12 @@
       <c r="E299" s="2">
         <v>3500</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="2">
+        <f t="shared" si="4"/>
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -7489,8 +8688,12 @@
       <c r="E300" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="2">
+        <f t="shared" si="4"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -7506,8 +8709,12 @@
       <c r="E301" s="2">
         <v>3100</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="2">
+        <f t="shared" si="4"/>
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -7523,8 +8730,12 @@
       <c r="E302" s="2">
         <v>3700</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="2">
+        <f t="shared" si="4"/>
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -7540,8 +8751,12 @@
       <c r="E303" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="2">
+        <f t="shared" si="4"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -7557,8 +8772,12 @@
       <c r="E304" s="2">
         <v>3350</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="2">
+        <f t="shared" si="4"/>
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -7574,8 +8793,12 @@
       <c r="E305" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="2">
+        <f t="shared" si="4"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -7591,8 +8814,12 @@
       <c r="E306" s="2">
         <v>3650</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="2">
+        <f t="shared" si="4"/>
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -7608,8 +8835,12 @@
       <c r="E307" s="2">
         <v>3300</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="2">
+        <f t="shared" si="4"/>
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -7625,8 +8856,12 @@
       <c r="E308" s="2">
         <v>5025</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="2">
+        <f t="shared" si="4"/>
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -7642,8 +8877,12 @@
       <c r="E309" s="2">
         <v>4375</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="2">
+        <f t="shared" si="4"/>
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -7659,8 +8898,12 @@
       <c r="E310" s="2">
         <v>3800</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="2">
+        <f t="shared" si="4"/>
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -7676,8 +8919,12 @@
       <c r="E311" s="2">
         <v>3275</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="2">
+        <f t="shared" si="4"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -7693,8 +8940,12 @@
       <c r="E312" s="2">
         <v>1300</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="2">
+        <f t="shared" si="4"/>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -7710,8 +8961,12 @@
       <c r="E313" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="2">
+        <f t="shared" si="4"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -7727,8 +8982,12 @@
       <c r="E314" s="2">
         <v>2600</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="2">
+        <f t="shared" si="4"/>
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -7744,8 +9003,12 @@
       <c r="E315" s="2">
         <v>2200</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="2">
+        <f t="shared" si="4"/>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -7761,8 +9024,12 @@
       <c r="E316" s="2">
         <v>3375</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="2">
+        <f t="shared" si="4"/>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -7778,8 +9045,12 @@
       <c r="E317" s="2">
         <v>2500</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="2">
+        <f t="shared" si="4"/>
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -7795,8 +9066,12 @@
       <c r="E318" s="2">
         <v>6100</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="2">
+        <f t="shared" si="4"/>
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -7812,8 +9087,12 @@
       <c r="E319" s="2">
         <v>4025</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="2">
+        <f t="shared" si="4"/>
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -7829,8 +9108,12 @@
       <c r="E320" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -7846,8 +9129,12 @@
       <c r="E321" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="2">
+        <f t="shared" si="4"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -7863,8 +9150,12 @@
       <c r="E322" s="2">
         <v>1675</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="2">
+        <f t="shared" si="4"/>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -7880,8 +9171,12 @@
       <c r="E323" s="2">
         <v>3600</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="2">
+        <f t="shared" ref="F323:F336" si="5">E323+1</f>
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -7897,8 +9192,12 @@
       <c r="E324" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -7914,8 +9213,12 @@
       <c r="E325" s="2">
         <v>2375</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="2">
+        <f t="shared" si="5"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -7931,8 +9234,12 @@
       <c r="E326" s="2">
         <v>3600</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="2">
+        <f t="shared" si="5"/>
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -7948,8 +9255,12 @@
       <c r="E327" s="2">
         <v>3175</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="2">
+        <f t="shared" si="5"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -7965,8 +9276,12 @@
       <c r="E328" s="2">
         <v>1500</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="2">
+        <f t="shared" si="5"/>
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -7982,8 +9297,12 @@
       <c r="E329" s="2">
         <v>4400</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="2">
+        <f t="shared" si="5"/>
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -7999,8 +9318,12 @@
       <c r="E330" s="2">
         <v>4550</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="2">
+        <f t="shared" si="5"/>
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -8016,8 +9339,12 @@
       <c r="E331" s="2">
         <v>4850</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="2">
+        <f t="shared" si="5"/>
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>0</v>
       </c>
@@ -8033,8 +9360,12 @@
       <c r="E332" s="2">
         <v>2375</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="2">
+        <f t="shared" si="5"/>
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>0</v>
       </c>
@@ -8050,8 +9381,12 @@
       <c r="E333" s="2">
         <v>3400</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="2">
+        <f t="shared" si="5"/>
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>0</v>
       </c>
@@ -8067,8 +9402,12 @@
       <c r="E334" s="2">
         <v>2075</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="2">
+        <f t="shared" si="5"/>
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>0</v>
       </c>
@@ -8084,8 +9423,12 @@
       <c r="E335" s="2">
         <v>2700</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="2">
+        <f t="shared" si="5"/>
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>0</v>
       </c>
@@ -8100,6 +9443,10 @@
       </c>
       <c r="E336" s="2">
         <v>3500</v>
+      </c>
+      <c r="F336" s="2">
+        <f t="shared" si="5"/>
+        <v>3501</v>
       </c>
     </row>
   </sheetData>
